--- a/src/analysis_examples/circadb/results_jtk/cosinor_10552740_nup62_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10552740_nup62_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.336378233395975, 0.4550273293288795]</t>
+          <t>[0.3340401331652323, 0.4573654295596222]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>4.815037257799304e-12</v>
+        <v>1.001754235119279e-11</v>
       </c>
       <c r="N2" t="n">
-        <v>4.815037257799304e-12</v>
+        <v>1.001754235119279e-11</v>
       </c>
       <c r="O2" t="n">
         <v>-0.8553685703467711</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.4419900584115498, 0.5051327535132687]</t>
+          <t>[0.4419936927032463, 0.5051291192215722]</t>
         </is>
       </c>
       <c r="U2" t="n">
